--- a/final-deliverables/deliverables-checklist.xlsx
+++ b/final-deliverables/deliverables-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\final-deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AA945F-0884-4CEF-82A1-43F6D621694D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED786DBE-C7DE-4434-BE0B-18A62EC807E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA5DA797-928C-4257-AB81-5FADF6247F41}"/>
   </bookViews>
@@ -171,13 +171,13 @@
     <t>IT IS DONE</t>
   </si>
   <si>
-    <t>MANIFEST.md (still missing file name identifiers for resume entry, assessment report)</t>
-  </si>
-  <si>
-    <t>it's done, bitch, leave it alone</t>
-  </si>
-  <si>
     <t>the file exists and has a sentence</t>
+  </si>
+  <si>
+    <t>it's done, dummy, leave it alone</t>
+  </si>
+  <si>
+    <t>MANIFEST.md (still missing file name identifiers for resume entry, assessment report; need to restructure and contextualize files in relation to folders, which means YOU GOTTA ORGANIZE YOUR SHIT)</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,11 +256,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,6 +291,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -300,23 +325,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80634</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25398</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3376</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>606901</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3191933</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>382039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD676C7-C42A-4A66-BE28-2A7CEB7F8B47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BA6EA0-0707-4A5B-80B2-2BFF92CCB2DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -332,8 +357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9464523" y="5523492"/>
-          <a:ext cx="2946551" cy="425472"/>
+          <a:off x="5444065" y="7095067"/>
+          <a:ext cx="3166535" cy="271972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5298880-3336-4B55-9D5E-98295F129064}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -754,170 +779,183 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="155" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="5">
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
-    <sortCondition ref="E2:E15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="E2:E16"/>
   </sortState>
-  <conditionalFormatting sqref="E2:E15">
+  <mergeCells count="4">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:E7 E9:E16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/final-deliverables/deliverables-checklist.xlsx
+++ b/final-deliverables/deliverables-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\final-deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED786DBE-C7DE-4434-BE0B-18A62EC807E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B101E-8242-4CCA-AFDB-C5EDC69B8534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA5DA797-928C-4257-AB81-5FADF6247F41}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>it's done, dummy, leave it alone</t>
   </si>
   <si>
-    <t>MANIFEST.md (still missing file name identifiers for resume entry, assessment report; need to restructure and contextualize files in relation to folders, which means YOU GOTTA ORGANIZE YOUR SHIT)</t>
+    <t>I organized my shit! It's done!</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,7 +782,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/final-deliverables/deliverables-checklist.xlsx
+++ b/final-deliverables/deliverables-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\final-deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B101E-8242-4CCA-AFDB-C5EDC69B8534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4A74E-4C4F-4A9E-B4E4-066F7D8BC974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA5DA797-928C-4257-AB81-5FADF6247F41}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Submission for a PyCon 2019 talk; speaker bio, talk title, description, who &amp; why, outline, additional notes</t>
   </si>
   <si>
-    <t>lol shit</t>
-  </si>
-  <si>
     <t>intro, research question, high level data source overview, how data sources were combined, problems overcome, prelim results and discussion of value</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>I organized my shit! It's done!</t>
+  </si>
+  <si>
+    <t>I have a script to go with my slides, haven't timed that shit tho</t>
   </si>
 </sst>
 </file>
@@ -669,9 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5298880-3336-4B55-9D5E-98295F129064}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,13 +705,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -739,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10">
         <v>2</v>
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
@@ -888,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -905,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5">
         <v>2</v>
@@ -939,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>

--- a/final-deliverables/deliverables-checklist.xlsx
+++ b/final-deliverables/deliverables-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\final-deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4A74E-4C4F-4A9E-B4E4-066F7D8BC974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36EC173-88B4-46E8-8C60-D66AD7789F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA5DA797-928C-4257-AB81-5FADF6247F41}"/>
   </bookViews>
@@ -162,15 +162,9 @@
     <t>pretty sure this is done!</t>
   </si>
   <si>
-    <t>some slides are done</t>
-  </si>
-  <si>
     <t>IT IS DONE</t>
   </si>
   <si>
-    <t>the file exists and has a sentence</t>
-  </si>
-  <si>
     <t>it's done, dummy, leave it alone</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>I have a script to go with my slides, haven't timed that shit tho</t>
+  </si>
+  <si>
+    <t>the file exists and is almost done</t>
+  </si>
+  <si>
+    <t>slides are done</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,41 +711,41 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10">
         <v>2</v>
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -955,7 +955,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E7 E9:E16">
+  <conditionalFormatting sqref="E9:E16 E2:E7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/final-deliverables/deliverables-checklist.xlsx
+++ b/final-deliverables/deliverables-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\final-deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB87B3-FB0C-48BA-AAEC-242C1CB0D30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1616B104-8A8E-4101-9BE5-91CC525322ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA5DA797-928C-4257-AB81-5FADF6247F41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Final dataset file</t>
   </si>
@@ -168,9 +168,6 @@
     <t>it's done, dummy, leave it alone</t>
   </si>
   <si>
-    <t>I organized my shit! It's done!</t>
-  </si>
-  <si>
     <t>slides are done</t>
   </si>
   <si>
@@ -178,13 +175,61 @@
   </si>
   <si>
     <t>the file exists and is DONE!</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>final-presentation-recording.mp4</t>
+  </si>
+  <si>
+    <t>presentation-slides.pptx</t>
+  </si>
+  <si>
+    <t>assessment-report.pdf</t>
+  </si>
+  <si>
+    <t>resume-snippet.pdf</t>
+  </si>
+  <si>
+    <t>MANIFEST.md</t>
+  </si>
+  <si>
+    <t>I organized my stuff! It's done!</t>
+  </si>
+  <si>
+    <t>summary-slide.pptx, summary-slide.pdf</t>
+  </si>
+  <si>
+    <t>conference-talk-proposal.txt</t>
+  </si>
+  <si>
+    <t>eebo_dataset_final_3.csv, estc_dataset_final_3.csv, open-syllabus_dataset_final_4.csv, ota_dataset_final.csv, project-gutenberg_dataset_final_3.csv</t>
+  </si>
+  <si>
+    <t>estc_extraction.py, project-gutenberg_extract_loop.py</t>
+  </si>
+  <si>
+    <t>see dataset documentation</t>
+  </si>
+  <si>
+    <t>final_dataset.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/asnowmenjig/IS590-Open-Data-Mashups, https://uofi.box.com/s/ensmkfzmmvdanx1y0l08gcz4maafqktm </t>
+  </si>
+  <si>
+    <t>eebo_documentation.md, estc_documentation.md, open-syllabus.documentation.md, ota_documentation.md, project-gutenberg_documentation.md</t>
+  </si>
+  <si>
+    <t>final-notebook.ipynb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +253,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -273,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -303,6 +355,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,16 +386,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>25398</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3191933</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>382039</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>411574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -357,7 +418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5444065" y="7095067"/>
+          <a:off x="6567375" y="6526521"/>
           <a:ext cx="3166535" cy="271972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -667,11 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5298880-3336-4B55-9D5E-98295F129064}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,11 +740,12 @@
     <col min="1" max="1" width="24.08984375" customWidth="1"/>
     <col min="2" max="2" width="37.1796875" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,81 +756,96 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -779,13 +856,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -795,21 +875,25 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="13"/>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -820,13 +904,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -837,13 +924,16 @@
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -854,13 +944,16 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -870,14 +963,17 @@
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,13 +984,16 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -905,13 +1004,16 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -921,14 +1023,17 @@
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -939,23 +1044,27 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
-    <sortCondition ref="E2:E16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F16">
+    <sortCondition ref="F4:F16"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E16 E2:E7">
+  <conditionalFormatting sqref="F9:F16 F2:F7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
